--- a/WMG.xlsx
+++ b/WMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43CB25-22E1-4A92-986C-79D066043A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2052F0E-CA6B-406E-B2CD-7F8B1B4432AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{8F9A65CD-FE74-4845-B940-B14D00EE680D}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{8F9A65CD-FE74-4845-B940-B14D00EE680D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,14 +205,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -226,6 +224,20 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -247,20 +259,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -600,32 +613,33 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="4" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>35.83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="3">
@@ -636,11 +650,11 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="3">
@@ -648,11 +662,11 @@
         <v>18644.53591988</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="3">
@@ -662,8 +676,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="3">
@@ -673,8 +687,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H7" s="3">
@@ -695,21 +709,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
@@ -756,8 +771,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3">
@@ -787,8 +802,8 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="3">
@@ -818,8 +833,8 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3">
@@ -849,8 +864,8 @@
         <v>5223</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3">
@@ -880,7 +895,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -911,8 +926,8 @@
         <v>6426</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3">
@@ -942,8 +957,8 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="3">
@@ -1008,8 +1023,8 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="3">
@@ -1039,8 +1054,8 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3">
@@ -1070,8 +1085,8 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3">
@@ -1101,8 +1116,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="3">
@@ -1132,8 +1147,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="3">
@@ -1198,8 +1213,8 @@
         <v>823</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="3">
@@ -1229,8 +1244,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="3">
@@ -1260,8 +1275,8 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3">
@@ -1291,8 +1306,8 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="3">
@@ -1357,8 +1372,8 @@
         <v>601</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3">
@@ -1388,8 +1403,8 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="3">
@@ -1454,8 +1469,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="3">
@@ -1485,8 +1500,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3">
@@ -1551,7 +1566,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1569,74 +1584,74 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="7">
         <f t="shared" ref="C24:F24" si="13">+C22/C25</f>
         <v>0.30786388930840991</v>
       </c>
-      <c r="D24" s="2" t="e">
+      <c r="D24" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="2" t="e">
+      <c r="E24" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="2" t="e">
+      <c r="F24" s="7" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="7">
         <f>+G22/G25</f>
         <v>0.45521793558666213</v>
       </c>
-      <c r="H24" s="2" t="e">
+      <c r="H24" s="7" t="e">
         <f t="shared" ref="H24:J24" si="14">+H22/H25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="2" t="e">
+      <c r="I24" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="2" t="e">
+      <c r="J24" s="7" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="2" t="e">
+      <c r="L24" s="7" t="e">
         <f t="shared" ref="L24:Q24" si="15">+L22/L25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="2" t="e">
+      <c r="M24" s="7" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="2" t="e">
+      <c r="N24" s="7" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="2" t="e">
+      <c r="O24" s="7" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P24" s="2">
+      <c r="P24" s="7">
         <f t="shared" si="15"/>
         <v>1.0705098813307741</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q24" s="7">
         <f t="shared" si="15"/>
         <v>0.83378577522686725</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R24" s="7">
         <f>+R22/R25</f>
         <v>0.84054235270702937</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="3">
@@ -1671,7 +1686,7 @@
         <v>517.52300000000002</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1689,256 +1704,256 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <f>+G7/C7-1</f>
         <v>-4.6910755148741434E-2</v>
       </c>
-      <c r="H27" s="7" t="e">
+      <c r="H27" s="8" t="e">
         <f t="shared" ref="H27:J27" si="16">+H7/D7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="7" t="e">
+      <c r="I27" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="7" t="e">
+      <c r="J27" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="7" t="e">
+      <c r="M27" s="8" t="e">
         <f t="shared" ref="M27:Q27" si="17">+M7/L7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="7" t="e">
+      <c r="N27" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="7" t="e">
+      <c r="O27" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="7" t="e">
+      <c r="P27" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="8">
         <f t="shared" si="17"/>
         <v>1.9935799966210421E-2</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="8">
         <f>+R7/Q7-1</f>
         <v>6.4435978134835148E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <f t="shared" ref="C28:J28" si="18">+C9/C7</f>
         <v>0.49656750572082381</v>
       </c>
-      <c r="D28" s="7" t="e">
+      <c r="D28" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="7" t="e">
+      <c r="E28" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="7" t="e">
+      <c r="F28" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="8">
         <f t="shared" si="18"/>
         <v>0.46338535414165666</v>
       </c>
-      <c r="H28" s="7" t="e">
+      <c r="H28" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="7" t="e">
+      <c r="I28" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="7" t="e">
+      <c r="J28" s="8" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="3"/>
-      <c r="L28" s="7" t="e">
+      <c r="L28" s="8" t="e">
         <f t="shared" ref="L28:Q28" si="19">+L9/L7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="7" t="e">
+      <c r="M28" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="7" t="e">
+      <c r="N28" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="7" t="e">
+      <c r="O28" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="8">
         <f t="shared" si="19"/>
         <v>0.47964183139043759</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="8">
         <f t="shared" si="19"/>
         <v>0.47374523770084481</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="8">
         <f>+R9/R7</f>
         <v>0.47790227201991908</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <f t="shared" ref="C29:J29" si="20">+C14/C7</f>
         <v>0.20251716247139587</v>
       </c>
-      <c r="D29" s="7" t="e">
+      <c r="D29" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="7" t="e">
+      <c r="E29" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="7" t="e">
+      <c r="F29" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="8">
         <f t="shared" si="20"/>
         <v>0.12845138055222088</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="7" t="e">
+      <c r="I29" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="7" t="e">
+      <c r="J29" s="8" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="7" t="e">
+      <c r="L29" s="8" t="e">
         <f t="shared" ref="L29:Q29" si="21">+L14/L7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="7" t="e">
+      <c r="M29" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="7" t="e">
+      <c r="N29" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="7" t="e">
+      <c r="O29" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="8">
         <f t="shared" si="21"/>
         <v>0.12062848454130766</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="8">
         <f t="shared" si="21"/>
         <v>0.13085969852575782</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="8">
         <f>+R14/R7</f>
         <v>0.12807345160286338</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <f t="shared" ref="C30:J30" si="22">+C19/C18</f>
         <v>0.27169811320754716</v>
       </c>
-      <c r="D30" s="7" t="e">
+      <c r="D30" s="8" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="7" t="e">
+      <c r="E30" s="8" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="7" t="e">
+      <c r="F30" s="8" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="8">
         <f t="shared" si="22"/>
         <v>0.26969696969696971</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7" t="e">
+      <c r="I30" s="8" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="7" t="e">
+      <c r="L30" s="8" t="e">
         <f t="shared" ref="L30:Q30" si="23">+L19/L18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="7" t="e">
+      <c r="M30" s="8" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="7" t="e">
+      <c r="N30" s="8" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="7" t="e">
+      <c r="O30" s="8" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="8">
         <f t="shared" si="23"/>
         <v>0.25</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="8">
         <f t="shared" si="23"/>
         <v>0.27914614121510672</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R30" s="8">
         <f>+R19/R18</f>
         <v>0.20465890183028287</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1956,7 +1971,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1974,7 +1989,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1992,7 +2007,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2010,7 +2025,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2028,7 +2043,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2046,7 +2061,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2064,7 +2079,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2082,7 +2097,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2100,7 +2115,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -2118,7 +2133,7 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2136,7 +2151,7 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2154,7 +2169,7 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2172,7 +2187,7 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2190,7 +2205,7 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2208,7 +2223,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2226,7 +2241,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2244,7 +2259,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2262,7 +2277,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2280,7 +2295,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2298,7 +2313,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2316,7 +2331,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2334,7 +2349,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2352,7 +2367,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2370,7 +2385,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2388,7 +2403,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2406,7 +2421,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2424,7 +2439,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2442,7 +2457,7 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2460,7 +2475,7 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2478,7 +2493,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2496,7 +2511,7 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2514,7 +2529,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2532,7 +2547,7 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2550,7 +2565,7 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2568,7 +2583,7 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2586,7 +2601,7 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2604,7 +2619,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
     </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2622,7 +2637,7 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
     </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2640,7 +2655,7 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
     </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2658,7 +2673,7 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
     </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2676,7 +2691,7 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2694,7 +2709,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
     </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2712,7 +2727,7 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
     </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2730,7 +2745,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
     </row>
-    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2748,7 +2763,7 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
     </row>
-    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2766,7 +2781,7 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2784,7 +2799,7 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
     </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2802,7 +2817,7 @@
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
     </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2820,7 +2835,7 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
     </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2838,7 +2853,7 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2856,7 +2871,7 @@
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2874,7 +2889,7 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
     </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2892,7 +2907,7 @@
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2910,7 +2925,7 @@
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
     </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2928,7 +2943,7 @@
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
     </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -2946,7 +2961,7 @@
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
     </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -2964,7 +2979,7 @@
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
     </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -2982,7 +2997,7 @@
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
     </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3000,7 +3015,7 @@
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3018,7 +3033,7 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
     </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3036,7 +3051,7 @@
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3054,7 +3069,7 @@
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
     </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3072,7 +3087,7 @@
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
     </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3090,7 +3105,7 @@
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3108,7 +3123,7 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
     </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3126,7 +3141,7 @@
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3144,7 +3159,7 @@
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
     </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3162,7 +3177,7 @@
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
     </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -3180,7 +3195,7 @@
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
     </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -3198,7 +3213,7 @@
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3216,7 +3231,7 @@
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3234,7 +3249,7 @@
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
     </row>
-    <row r="103" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -3252,7 +3267,7 @@
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
     </row>
-    <row r="104" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -3270,7 +3285,7 @@
       <c r="Q104" s="3"/>
       <c r="R104" s="3"/>
     </row>
-    <row r="105" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -3288,7 +3303,7 @@
       <c r="Q105" s="3"/>
       <c r="R105" s="3"/>
     </row>
-    <row r="106" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -3306,7 +3321,7 @@
       <c r="Q106" s="3"/>
       <c r="R106" s="3"/>
     </row>
-    <row r="107" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -3324,7 +3339,7 @@
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
     </row>
-    <row r="108" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3342,7 +3357,7 @@
       <c r="Q108" s="3"/>
       <c r="R108" s="3"/>
     </row>
-    <row r="109" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3360,7 +3375,7 @@
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
     </row>
-    <row r="110" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -3378,7 +3393,7 @@
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
     </row>
-    <row r="111" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -3396,7 +3411,7 @@
       <c r="Q111" s="3"/>
       <c r="R111" s="3"/>
     </row>
-    <row r="112" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -3414,7 +3429,7 @@
       <c r="Q112" s="3"/>
       <c r="R112" s="3"/>
     </row>
-    <row r="113" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -3432,7 +3447,7 @@
       <c r="Q113" s="3"/>
       <c r="R113" s="3"/>
     </row>
-    <row r="114" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3450,7 +3465,7 @@
       <c r="Q114" s="3"/>
       <c r="R114" s="3"/>
     </row>
-    <row r="115" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -3468,7 +3483,7 @@
       <c r="Q115" s="3"/>
       <c r="R115" s="3"/>
     </row>
-    <row r="116" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -3486,7 +3501,7 @@
       <c r="Q116" s="3"/>
       <c r="R116" s="3"/>
     </row>
-    <row r="117" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -3504,7 +3519,7 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
     </row>
-    <row r="118" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3522,7 +3537,7 @@
       <c r="Q118" s="3"/>
       <c r="R118" s="3"/>
     </row>
-    <row r="119" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -3540,7 +3555,7 @@
       <c r="Q119" s="3"/>
       <c r="R119" s="3"/>
     </row>
-    <row r="120" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -3558,7 +3573,7 @@
       <c r="Q120" s="3"/>
       <c r="R120" s="3"/>
     </row>
-    <row r="121" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3576,7 +3591,7 @@
       <c r="Q121" s="3"/>
       <c r="R121" s="3"/>
     </row>
-    <row r="122" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -3594,7 +3609,7 @@
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
     </row>
-    <row r="123" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -3612,7 +3627,7 @@
       <c r="Q123" s="3"/>
       <c r="R123" s="3"/>
     </row>
-    <row r="124" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -3630,7 +3645,7 @@
       <c r="Q124" s="3"/>
       <c r="R124" s="3"/>
     </row>
-    <row r="125" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -3648,7 +3663,7 @@
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
     </row>
-    <row r="126" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3666,7 +3681,7 @@
       <c r="Q126" s="3"/>
       <c r="R126" s="3"/>
     </row>
-    <row r="127" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3684,7 +3699,7 @@
       <c r="Q127" s="3"/>
       <c r="R127" s="3"/>
     </row>
-    <row r="128" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -3702,7 +3717,7 @@
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
     </row>
-    <row r="129" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -3720,7 +3735,7 @@
       <c r="Q129" s="3"/>
       <c r="R129" s="3"/>
     </row>
-    <row r="130" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -3738,7 +3753,7 @@
       <c r="Q130" s="3"/>
       <c r="R130" s="3"/>
     </row>
-    <row r="131" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -3756,7 +3771,7 @@
       <c r="Q131" s="3"/>
       <c r="R131" s="3"/>
     </row>
-    <row r="132" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -3774,7 +3789,7 @@
       <c r="Q132" s="3"/>
       <c r="R132" s="3"/>
     </row>
-    <row r="133" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -3792,7 +3807,7 @@
       <c r="Q133" s="3"/>
       <c r="R133" s="3"/>
     </row>
-    <row r="134" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -3810,7 +3825,7 @@
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
     </row>
-    <row r="135" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -3828,7 +3843,7 @@
       <c r="Q135" s="3"/>
       <c r="R135" s="3"/>
     </row>
-    <row r="136" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -3846,7 +3861,7 @@
       <c r="Q136" s="3"/>
       <c r="R136" s="3"/>
     </row>
-    <row r="137" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -3864,7 +3879,7 @@
       <c r="Q137" s="3"/>
       <c r="R137" s="3"/>
     </row>
-    <row r="138" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -3882,7 +3897,7 @@
       <c r="Q138" s="3"/>
       <c r="R138" s="3"/>
     </row>
-    <row r="139" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -3900,7 +3915,7 @@
       <c r="Q139" s="3"/>
       <c r="R139" s="3"/>
     </row>
-    <row r="140" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -3918,7 +3933,7 @@
       <c r="Q140" s="3"/>
       <c r="R140" s="3"/>
     </row>
-    <row r="141" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -3936,7 +3951,7 @@
       <c r="Q141" s="3"/>
       <c r="R141" s="3"/>
     </row>
-    <row r="142" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -3954,7 +3969,7 @@
       <c r="Q142" s="3"/>
       <c r="R142" s="3"/>
     </row>
-    <row r="143" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -3972,7 +3987,7 @@
       <c r="Q143" s="3"/>
       <c r="R143" s="3"/>
     </row>
-    <row r="144" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -3990,7 +4005,7 @@
       <c r="Q144" s="3"/>
       <c r="R144" s="3"/>
     </row>
-    <row r="145" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -4008,7 +4023,7 @@
       <c r="Q145" s="3"/>
       <c r="R145" s="3"/>
     </row>
-    <row r="146" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -4026,7 +4041,7 @@
       <c r="Q146" s="3"/>
       <c r="R146" s="3"/>
     </row>
-    <row r="147" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -4044,7 +4059,7 @@
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
     </row>
-    <row r="148" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -4062,7 +4077,7 @@
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
     </row>
-    <row r="149" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4080,7 +4095,7 @@
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
     </row>
-    <row r="150" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -4098,7 +4113,7 @@
       <c r="Q150" s="3"/>
       <c r="R150" s="3"/>
     </row>
-    <row r="151" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4116,7 +4131,7 @@
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
     </row>
-    <row r="152" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -4134,7 +4149,7 @@
       <c r="Q152" s="3"/>
       <c r="R152" s="3"/>
     </row>
-    <row r="153" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -4152,7 +4167,7 @@
       <c r="Q153" s="3"/>
       <c r="R153" s="3"/>
     </row>
-    <row r="154" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -4170,7 +4185,7 @@
       <c r="Q154" s="3"/>
       <c r="R154" s="3"/>
     </row>
-    <row r="155" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -4188,7 +4203,7 @@
       <c r="Q155" s="3"/>
       <c r="R155" s="3"/>
     </row>
-    <row r="156" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -4206,7 +4221,7 @@
       <c r="Q156" s="3"/>
       <c r="R156" s="3"/>
     </row>
-    <row r="157" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4224,7 +4239,7 @@
       <c r="Q157" s="3"/>
       <c r="R157" s="3"/>
     </row>
-    <row r="158" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -4242,7 +4257,7 @@
       <c r="Q158" s="3"/>
       <c r="R158" s="3"/>
     </row>
-    <row r="159" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -4260,7 +4275,7 @@
       <c r="Q159" s="3"/>
       <c r="R159" s="3"/>
     </row>
-    <row r="160" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -4278,7 +4293,7 @@
       <c r="Q160" s="3"/>
       <c r="R160" s="3"/>
     </row>
-    <row r="161" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -4296,7 +4311,7 @@
       <c r="Q161" s="3"/>
       <c r="R161" s="3"/>
     </row>
-    <row r="162" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4314,7 +4329,7 @@
       <c r="Q162" s="3"/>
       <c r="R162" s="3"/>
     </row>
-    <row r="163" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -4332,7 +4347,7 @@
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
     </row>
-    <row r="164" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -4350,7 +4365,7 @@
       <c r="Q164" s="3"/>
       <c r="R164" s="3"/>
     </row>
-    <row r="165" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -4368,7 +4383,7 @@
       <c r="Q165" s="3"/>
       <c r="R165" s="3"/>
     </row>
-    <row r="166" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -4386,7 +4401,7 @@
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
     </row>
-    <row r="167" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -4404,7 +4419,7 @@
       <c r="Q167" s="3"/>
       <c r="R167" s="3"/>
     </row>
-    <row r="168" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -4422,7 +4437,7 @@
       <c r="Q168" s="3"/>
       <c r="R168" s="3"/>
     </row>
-    <row r="169" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -4440,7 +4455,7 @@
       <c r="Q169" s="3"/>
       <c r="R169" s="3"/>
     </row>
-    <row r="170" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -4458,7 +4473,7 @@
       <c r="Q170" s="3"/>
       <c r="R170" s="3"/>
     </row>
-    <row r="171" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -4476,7 +4491,7 @@
       <c r="Q171" s="3"/>
       <c r="R171" s="3"/>
     </row>
-    <row r="172" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -4494,7 +4509,7 @@
       <c r="Q172" s="3"/>
       <c r="R172" s="3"/>
     </row>
-    <row r="173" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -4512,7 +4527,7 @@
       <c r="Q173" s="3"/>
       <c r="R173" s="3"/>
     </row>
-    <row r="174" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -4530,7 +4545,7 @@
       <c r="Q174" s="3"/>
       <c r="R174" s="3"/>
     </row>
-    <row r="175" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -4548,7 +4563,7 @@
       <c r="Q175" s="3"/>
       <c r="R175" s="3"/>
     </row>
-    <row r="176" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -4566,7 +4581,7 @@
       <c r="Q176" s="3"/>
       <c r="R176" s="3"/>
     </row>
-    <row r="177" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -4584,7 +4599,7 @@
       <c r="Q177" s="3"/>
       <c r="R177" s="3"/>
     </row>
-    <row r="178" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -4602,7 +4617,7 @@
       <c r="Q178" s="3"/>
       <c r="R178" s="3"/>
     </row>
-    <row r="179" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -4620,7 +4635,7 @@
       <c r="Q179" s="3"/>
       <c r="R179" s="3"/>
     </row>
-    <row r="180" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -4638,7 +4653,7 @@
       <c r="Q180" s="3"/>
       <c r="R180" s="3"/>
     </row>
-    <row r="181" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -4656,7 +4671,7 @@
       <c r="Q181" s="3"/>
       <c r="R181" s="3"/>
     </row>
-    <row r="182" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -4674,7 +4689,7 @@
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
     </row>
-    <row r="183" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -4692,7 +4707,7 @@
       <c r="Q183" s="3"/>
       <c r="R183" s="3"/>
     </row>
-    <row r="184" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -4710,7 +4725,7 @@
       <c r="Q184" s="3"/>
       <c r="R184" s="3"/>
     </row>
-    <row r="185" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -4728,7 +4743,7 @@
       <c r="Q185" s="3"/>
       <c r="R185" s="3"/>
     </row>
-    <row r="186" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -4746,7 +4761,7 @@
       <c r="Q186" s="3"/>
       <c r="R186" s="3"/>
     </row>
-    <row r="187" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -4764,7 +4779,7 @@
       <c r="Q187" s="3"/>
       <c r="R187" s="3"/>
     </row>
-    <row r="188" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -4782,7 +4797,7 @@
       <c r="Q188" s="3"/>
       <c r="R188" s="3"/>
     </row>
-    <row r="189" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -4800,7 +4815,7 @@
       <c r="Q189" s="3"/>
       <c r="R189" s="3"/>
     </row>
-    <row r="190" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>

--- a/WMG.xlsx
+++ b/WMG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2052F0E-CA6B-406E-B2CD-7F8B1B4432AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174F6F2D-9CD3-4778-9E27-16A7A7FF4B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{8F9A65CD-FE74-4845-B940-B14D00EE680D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{8F9A65CD-FE74-4845-B940-B14D00EE680D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -196,13 +196,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -259,21 +265,25 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -613,7 +623,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -635,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="2">
-        <v>35.83</v>
+        <v>33.81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -643,11 +653,11 @@
         <v>3</v>
       </c>
       <c r="H3" s="3">
-        <f>144.980723+375.380313</f>
-        <v>520.36103600000001</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>43</v>
+        <f>145.886566+375.380313</f>
+        <v>521.26687900000002</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -659,7 +669,7 @@
       </c>
       <c r="H4" s="3">
         <f>+H3*H2</f>
-        <v>18644.53591988</v>
+        <v>17624.033178990001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -670,10 +680,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="3">
-        <v>802</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>43</v>
+        <v>527</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -681,10 +691,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="3">
-        <v>3955</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>43</v>
+        <f>4061+302</f>
+        <v>4363</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -693,7 +704,7 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>21797.53591988</v>
+        <v>21460.033178990001</v>
       </c>
     </row>
   </sheetData>
@@ -706,10 +717,10 @@
   <dimension ref="A1:R190"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -778,13 +789,17 @@
       <c r="C3" s="3">
         <v>908</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>882</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3">
         <v>873</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>929</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -809,13 +824,17 @@
       <c r="C4" s="3">
         <v>154</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>120</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3">
         <v>166</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>119</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -840,13 +859,17 @@
       <c r="C5" s="3">
         <v>1445</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>1251</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3">
         <v>1345</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>1354</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -871,13 +894,17 @@
       <c r="C6" s="3">
         <v>304</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>305</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>323</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>336</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -902,13 +929,17 @@
       <c r="C7" s="6">
         <v>1748</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>1554</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
         <v>1666</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6">
+        <v>1689</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -933,13 +964,17 @@
       <c r="C8" s="3">
         <v>880</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>830</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3">
         <v>894</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>913</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -967,7 +1002,7 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
@@ -983,7 +1018,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -1030,13 +1065,17 @@
       <c r="C10" s="3">
         <v>476</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>462</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
         <v>474</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>471</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1061,13 +1100,17 @@
       <c r="C11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
         <v>27</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>69</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1092,13 +1135,17 @@
       <c r="C12" s="3">
         <v>55</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>55</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>57</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>67</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1123,13 +1170,17 @@
       <c r="C13" s="3">
         <v>17</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1157,7 +1208,7 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
@@ -1173,7 +1224,7 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="2"/>
@@ -1220,13 +1271,17 @@
       <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1251,13 +1306,17 @@
       <c r="C16" s="3">
         <v>39</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>40</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>37</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>43</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1282,13 +1341,17 @@
       <c r="C17" s="3">
         <v>-50</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
         <v>153</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>-137</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1316,7 +1379,7 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="7"/>
@@ -1332,7 +1395,7 @@
       </c>
       <c r="H18" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="7"/>
@@ -1379,13 +1442,17 @@
       <c r="C19" s="3">
         <v>72</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>30</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3">
         <v>89</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -1413,7 +1480,7 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="9"/>
@@ -1429,7 +1496,7 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
@@ -1476,13 +1543,17 @@
       <c r="C21" s="3">
         <v>34</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -1510,7 +1581,7 @@
       </c>
       <c r="D22" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="11"/>
@@ -1526,7 +1597,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="11"/>
@@ -1592,9 +1663,9 @@
         <f t="shared" ref="C24:F24" si="13">+C22/C25</f>
         <v>0.30786388930840991</v>
       </c>
-      <c r="D24" s="7" t="e">
+      <c r="D24" s="7">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>0.2684003915942404</v>
       </c>
       <c r="E24" s="7" t="e">
         <f t="shared" si="13"/>
@@ -1608,9 +1679,9 @@
         <f>+G22/G25</f>
         <v>0.45521793558666213</v>
       </c>
-      <c r="H24" s="7" t="e">
+      <c r="H24" s="7">
         <f t="shared" ref="H24:J24" si="14">+H22/H25</f>
-        <v>#DIV/0!</v>
+        <v>-3.0694972547183928E-2</v>
       </c>
       <c r="I24" s="7" t="e">
         <f t="shared" si="14"/>
@@ -1658,14 +1729,20 @@
         <f>138.972+377.49</f>
         <v>516.46199999999999</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3">
+        <f>141.568+376.315</f>
+        <v>517.88300000000004</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
         <f>143.053+375.38</f>
         <v>518.43299999999999</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3">
+        <f>145.878+375.38</f>
+        <v>521.25800000000004</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1716,9 +1793,9 @@
         <f>+G7/C7-1</f>
         <v>-4.6910755148741434E-2</v>
       </c>
-      <c r="H27" s="8" t="e">
+      <c r="H27" s="8">
         <f t="shared" ref="H27:J27" si="16">+H7/D7-1</f>
-        <v>#DIV/0!</v>
+        <v>8.687258687258681E-2</v>
       </c>
       <c r="I27" s="8" t="e">
         <f t="shared" si="16"/>
@@ -1763,9 +1840,9 @@
         <f t="shared" ref="C28:J28" si="18">+C9/C7</f>
         <v>0.49656750572082381</v>
       </c>
-      <c r="D28" s="8" t="e">
+      <c r="D28" s="8">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.46589446589446587</v>
       </c>
       <c r="E28" s="8" t="e">
         <f t="shared" si="18"/>
@@ -1779,9 +1856,9 @@
         <f t="shared" si="18"/>
         <v>0.46338535414165666</v>
       </c>
-      <c r="H28" s="8" t="e">
+      <c r="H28" s="8">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>0.45944345766725875</v>
       </c>
       <c r="I28" s="8" t="e">
         <f t="shared" si="18"/>
@@ -1829,9 +1906,9 @@
         <f t="shared" ref="C29:J29" si="20">+C14/C7</f>
         <v>0.20251716247139587</v>
       </c>
-      <c r="D29" s="8" t="e">
+      <c r="D29" s="8">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.13320463320463322</v>
       </c>
       <c r="E29" s="8" t="e">
         <f t="shared" si="20"/>
@@ -1845,9 +1922,9 @@
         <f t="shared" si="20"/>
         <v>0.12845138055222088</v>
       </c>
-      <c r="H29" s="8" t="e">
+      <c r="H29" s="8">
         <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+        <v>0.10005920663114269</v>
       </c>
       <c r="I29" s="8" t="e">
         <f t="shared" si="20"/>
@@ -1895,9 +1972,9 @@
         <f t="shared" ref="C30:J30" si="22">+C19/C18</f>
         <v>0.27169811320754716</v>
       </c>
-      <c r="D30" s="8" t="e">
+      <c r="D30" s="8">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.17543859649122806</v>
       </c>
       <c r="E30" s="8" t="e">
         <f t="shared" si="22"/>
@@ -1911,9 +1988,9 @@
         <f t="shared" si="22"/>
         <v>0.26969696969696971</v>
       </c>
-      <c r="H30" s="8" t="e">
+      <c r="H30" s="8">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>-0.45454545454545453</v>
       </c>
       <c r="I30" s="8" t="e">
         <f t="shared" si="22"/>
